--- a/correlation/correlation 5 and 6/correlation 5 and 6 - commons-logging .xlsx
+++ b/correlation/correlation 5 and 6/correlation 5 and 6 - commons-logging .xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/correlation 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{385D2A5D-A189-4FBD-9F3A-2331FE9601DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC1BCF-ED88-6D46-B104-1D7045D506EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Sl.No</t>
   </si>
@@ -61,6 +63,9 @@
   </si>
   <si>
     <t>1.1.3</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -305,7 +310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$15</c:f>
+              <c:f>Sheet1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -343,49 +348,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.4048515265579256</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54203806311732117</c:v>
+                  <c:v>0.10954702305964835</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.74081913429992596</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11016248967226659</c:v>
+                  <c:v>2.4048515265579256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.54203806311732117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10954702305964835</c:v>
+                  <c:v>0.11016248967226659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$21</c:f>
+              <c:f>Sheet1!$B$16:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>87.93</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119.57</c:v>
+                  <c:v>78.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>83.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136.06</c:v>
+                  <c:v>87.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78</c:v>
+                  <c:v>119.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.83</c:v>
+                  <c:v>136.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +590,525 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Apache Common Logging</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Maintenance Effort vs Defect Density</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metrics 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>119.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10954702305964835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74081913429992596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4048515265579256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54203806311732117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11016248967226659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B49-034F-A09E-D998A486D7B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1380490224"/>
+        <c:axId val="1380275216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1380490224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maintenance Effort</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380275216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1380275216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Defect Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380490224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1141,6 +1664,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1174,6 +2213,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A26BE04-B888-2049-B7AD-9C5B33165B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1383,18 +2458,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A4:G21"/>
+  <dimension ref="A4:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="14.42578125" style="11"/>
+    <col min="6" max="6" width="14.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +2492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1441,7 +2516,7 @@
         <v>2.4048515265579256</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1465,7 +2540,7 @@
         <v>0.54203806311732117</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1489,7 +2564,7 @@
         <v>0.74081913429992596</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1513,7 +2588,7 @@
         <v>0.11016248967226659</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1537,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1561,63 +2636,69 @@
         <v>0.10954702305964835</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>78</v>
+      </c>
       <c r="C16" s="5">
-        <v>2.4048515265579256</v>
-      </c>
-      <c r="D16" s="9">
-        <v>87.93</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9">
+        <v>78.83</v>
+      </c>
       <c r="C17" s="5">
-        <v>0.54203806311732117</v>
-      </c>
-      <c r="D17" s="9">
-        <v>119.57</v>
+        <v>0.10954702305964835</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>83.68</v>
+      </c>
       <c r="C18" s="5">
         <v>0.74081913429992596</v>
       </c>
-      <c r="D18" s="9">
-        <v>83.68</v>
-      </c>
     </row>
-    <row r="19" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>87.93</v>
+      </c>
       <c r="C19" s="5">
+        <v>2.4048515265579256</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9">
+        <v>119.57</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.54203806311732117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="9">
+        <v>136.06</v>
+      </c>
+      <c r="C21" s="5">
         <v>0.11016248967226659</v>
       </c>
-      <c r="D19" s="9">
-        <v>136.06</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="5">
-        <v>0.10954702305964835</v>
-      </c>
-      <c r="D21" s="9">
-        <v>78.83</v>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B16:C21">
+    <sortCondition ref="B15"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/correlation/correlation 5 and 6/correlation 5 and 6 - commons-logging .xlsx
+++ b/correlation/correlation 5 and 6/correlation 5 and 6 - commons-logging .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shalin_patel/Downloads/soen6611-measurement-metrics/correlation/correlation 5 and 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CC1BCF-ED88-6D46-B104-1D7045D506EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D75D451-C508-E046-86C7-2E40EA1B146A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2461,7 +2461,7 @@
   <dimension ref="A4:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2650,6 +2650,10 @@
       </c>
       <c r="C16" s="5">
         <v>0</v>
+      </c>
+      <c r="D16">
+        <f>CORREL(B16:B21,C16:C21)</f>
+        <v>-0.16694417045540635</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
